--- a/Work/test_vector/测试向量.xlsx
+++ b/Work/test_vector/测试向量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaohao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workplace\Work\test_vector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6B55D-FC09-46CA-BE06-FEE8559D31C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F792C1-2C5E-4AD6-A55C-2E798B530035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{526387ED-0F66-4B6D-829D-E42700D1291A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{526387ED-0F66-4B6D-829D-E42700D1291A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>超量程、不超量程、部分超量程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +96,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,21 +155,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,72 +488,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A830EC-99E6-4BC6-B71E-AF071BEE7486}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
